--- a/disagreement_matrix/engineering_version/rsj_matrix_records/Hepatitis_withoutdupl_16_odi.xlsx
+++ b/disagreement_matrix/engineering_version/rsj_matrix_records/Hepatitis_withoutdupl_16_odi.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -394,2328 +394,2085 @@
       <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07253162949115126</v>
+        <v>0.07330882501620385</v>
       </c>
       <c r="C2">
-        <v>0.04784559278940952</v>
+        <v>0.05114799530899414</v>
       </c>
       <c r="D2">
-        <v>0.1249231675790373</v>
+        <v>0.1325971741976553</v>
       </c>
       <c r="E2">
-        <v>0.222086515369437</v>
+        <v>0.2378981280047177</v>
       </c>
       <c r="F2">
-        <v>0.3757509947091029</v>
+        <v>0.3891297302491321</v>
       </c>
       <c r="G2">
-        <v>0.05039509275118609</v>
+        <v>0.0547514359499169</v>
       </c>
       <c r="H2">
-        <v>0.05629988485971699</v>
-      </c>
-      <c r="I2">
-        <v>0.05016712245095877</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.06116671127338007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.07409718248940096</v>
+        <v>0.0808530060043236</v>
       </c>
       <c r="C3">
-        <v>0.04651249102659831</v>
+        <v>0.05012189673329418</v>
       </c>
       <c r="D3">
-        <v>0.1469657947445266</v>
+        <v>0.1557569930338124</v>
       </c>
       <c r="E3">
-        <v>0.1768211337613616</v>
+        <v>0.1889906688679991</v>
       </c>
       <c r="F3">
-        <v>0.3836328292545794</v>
+        <v>0.4039664700742792</v>
       </c>
       <c r="G3">
-        <v>0.05505912067581225</v>
+        <v>0.05990710799202724</v>
       </c>
       <c r="H3">
-        <v>0.05534238956227081</v>
-      </c>
-      <c r="I3">
-        <v>0.06156905848545002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.0604038572942641</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1431865754647554</v>
+        <v>0.1769373908396081</v>
       </c>
       <c r="C4">
-        <v>0.2153367616624197</v>
+        <v>0.2627876437181502</v>
       </c>
       <c r="D4">
-        <v>0.03857625392415232</v>
+        <v>0.04629264936395371</v>
       </c>
       <c r="E4">
-        <v>0.04786200669107644</v>
+        <v>0.05722762091506885</v>
       </c>
       <c r="F4">
-        <v>0.0861432617341769</v>
+        <v>0.104829240679272</v>
       </c>
       <c r="G4">
-        <v>0.1397173885665108</v>
+        <v>0.1677641575181409</v>
       </c>
       <c r="H4">
-        <v>0.1503349760896791</v>
-      </c>
-      <c r="I4">
-        <v>0.1788427758672295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.1841612969658061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.07542262962457828</v>
+        <v>0.07804034134428098</v>
       </c>
       <c r="C5">
-        <v>0.05941909409016367</v>
+        <v>0.06129526164334589</v>
       </c>
       <c r="D5">
-        <v>0.1067990052183007</v>
+        <v>0.1296010067180169</v>
       </c>
       <c r="E5">
-        <v>0.1243555597096548</v>
+        <v>0.1458054128055714</v>
       </c>
       <c r="F5">
-        <v>0.3962986529957445</v>
+        <v>0.425690102653855</v>
       </c>
       <c r="G5">
-        <v>0.08644316273639417</v>
+        <v>0.08294405022987039</v>
       </c>
       <c r="H5">
-        <v>0.07234079244338636</v>
-      </c>
-      <c r="I5">
-        <v>0.07892110318177747</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.0766238246050594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1597427775689139</v>
+        <v>0.1874714687940305</v>
       </c>
       <c r="C6">
-        <v>0.161417854298721</v>
+        <v>0.1969902888287814</v>
       </c>
       <c r="D6">
-        <v>0.07738016498041665</v>
+        <v>0.09475076879852945</v>
       </c>
       <c r="E6">
-        <v>0.09330852767976788</v>
+        <v>0.1148388753458117</v>
       </c>
       <c r="F6">
-        <v>0.08451792348805777</v>
+        <v>0.1062496207151256</v>
       </c>
       <c r="G6">
-        <v>0.1190711048952895</v>
+        <v>0.1437325921380085</v>
       </c>
       <c r="H6">
-        <v>0.1231270242543304</v>
-      </c>
-      <c r="I6">
-        <v>0.1814346228345028</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.1559663853797127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1252710894249824</v>
+        <v>0.1551584677396858</v>
       </c>
       <c r="C7">
-        <v>0.1793317284640274</v>
+        <v>0.214170722868419</v>
       </c>
       <c r="D7">
-        <v>0.08538337994946975</v>
+        <v>0.1052653003415707</v>
       </c>
       <c r="E7">
-        <v>0.06934551564040946</v>
+        <v>0.08252899652975308</v>
       </c>
       <c r="F7">
-        <v>0.06753864656240957</v>
+        <v>0.08315453885524313</v>
       </c>
       <c r="G7">
-        <v>0.1355792023305884</v>
+        <v>0.1619181045112347</v>
       </c>
       <c r="H7">
-        <v>0.1667798983117194</v>
-      </c>
-      <c r="I7">
-        <v>0.1707705393163935</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.1978038691540936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1130416710368716</v>
+        <v>0.1282872580543675</v>
       </c>
       <c r="C8">
-        <v>0.1150813214238526</v>
+        <v>0.1327333815950268</v>
       </c>
       <c r="D8">
-        <v>0.1231645632897486</v>
+        <v>0.1423161978599864</v>
       </c>
       <c r="E8">
-        <v>0.142255711457325</v>
+        <v>0.1629360718960137</v>
       </c>
       <c r="F8">
-        <v>0.159256264169465</v>
+        <v>0.1883664235036561</v>
       </c>
       <c r="G8">
-        <v>0.094807963473051</v>
+        <v>0.1107269762096523</v>
       </c>
       <c r="H8">
-        <v>0.1182912172640356</v>
-      </c>
-      <c r="I8">
-        <v>0.1341012878856507</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.1346336908812973</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07102166790109631</v>
+        <v>0.07584414165993714</v>
       </c>
       <c r="C9">
-        <v>0.05907223434683762</v>
+        <v>0.06445773538250985</v>
       </c>
       <c r="D9">
-        <v>0.1878883047027157</v>
+        <v>0.204019218120096</v>
       </c>
       <c r="E9">
-        <v>0.1477917648808917</v>
+        <v>0.160190012515445</v>
       </c>
       <c r="F9">
-        <v>0.3139377422143131</v>
+        <v>0.3398068920354555</v>
       </c>
       <c r="G9">
-        <v>0.06467969724624607</v>
+        <v>0.07173045633020311</v>
       </c>
       <c r="H9">
-        <v>0.07870742669468241</v>
-      </c>
-      <c r="I9">
-        <v>0.0769011620132172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.08395154395635332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.06577945470215876</v>
+        <v>0.07432399509608198</v>
       </c>
       <c r="C10">
-        <v>0.05142883153966097</v>
+        <v>0.05486707778057219</v>
       </c>
       <c r="D10">
-        <v>0.1605753152123504</v>
+        <v>0.1614515439569614</v>
       </c>
       <c r="E10">
-        <v>0.1219792731246587</v>
+        <v>0.1345757799621466</v>
       </c>
       <c r="F10">
-        <v>0.4265079886827712</v>
+        <v>0.4487183646584099</v>
       </c>
       <c r="G10">
-        <v>0.05681966621585618</v>
+        <v>0.06271764781970757</v>
       </c>
       <c r="H10">
-        <v>0.05741679679525374</v>
-      </c>
-      <c r="I10">
-        <v>0.05949267372729004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.06334559072612038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.07109811184944077</v>
+        <v>0.08101442376090254</v>
       </c>
       <c r="C11">
-        <v>0.07925465027238061</v>
+        <v>0.08848456823525469</v>
       </c>
       <c r="D11">
-        <v>0.1506438388587114</v>
+        <v>0.1638874027202684</v>
       </c>
       <c r="E11">
-        <v>0.1751622588511117</v>
+        <v>0.1864468184552569</v>
       </c>
       <c r="F11">
-        <v>0.2783096061645288</v>
+        <v>0.2823495693347767</v>
       </c>
       <c r="G11">
-        <v>0.1159442930863528</v>
+        <v>0.1313051593905364</v>
       </c>
       <c r="H11">
-        <v>0.05720753133748603</v>
-      </c>
-      <c r="I11">
-        <v>0.07237970957998795</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.06651205810300449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1194409975483481</v>
+        <v>0.1461548078326309</v>
       </c>
       <c r="C12">
-        <v>0.1973389059484854</v>
+        <v>0.2442792459511848</v>
       </c>
       <c r="D12">
-        <v>0.08504840954294123</v>
+        <v>0.124005810641017</v>
       </c>
       <c r="E12">
-        <v>0.08529803794466273</v>
+        <v>0.1233127146263723</v>
       </c>
       <c r="F12">
-        <v>0.08078849782594512</v>
+        <v>0.1020651722332764</v>
       </c>
       <c r="G12">
-        <v>0.09867701799316657</v>
+        <v>0.1327340072276657</v>
       </c>
       <c r="H12">
-        <v>0.1046634606635097</v>
-      </c>
-      <c r="I12">
-        <v>0.2287446725329412</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.1274482414878527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.07529747896007111</v>
+        <v>0.08320608830796097</v>
       </c>
       <c r="C13">
-        <v>0.04402433647079552</v>
+        <v>0.04733137358364655</v>
       </c>
       <c r="D13">
-        <v>0.09618775940801173</v>
+        <v>0.09756648098189277</v>
       </c>
       <c r="E13">
-        <v>0.1149199353291803</v>
+        <v>0.124331269163859</v>
       </c>
       <c r="F13">
-        <v>0.4883086892107995</v>
+        <v>0.5193797323013097</v>
       </c>
       <c r="G13">
-        <v>0.06633833580824984</v>
+        <v>0.0725969244969118</v>
       </c>
       <c r="H13">
-        <v>0.0520308732538507</v>
-      </c>
-      <c r="I13">
-        <v>0.06289259155904151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.05558813116441935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.06450464182761372</v>
+        <v>0.06419799742063026</v>
       </c>
       <c r="C14">
-        <v>0.04642920401711364</v>
+        <v>0.04963808912757232</v>
       </c>
       <c r="D14">
-        <v>0.1149472695075303</v>
+        <v>0.1216979036555878</v>
       </c>
       <c r="E14">
-        <v>0.1877290644834208</v>
+        <v>0.1836530272842643</v>
       </c>
       <c r="F14">
-        <v>0.4086419733382403</v>
+        <v>0.4361048794468764</v>
       </c>
       <c r="G14">
-        <v>0.04191825369480335</v>
+        <v>0.0475519102301902</v>
       </c>
       <c r="H14">
-        <v>0.08764334304529517</v>
-      </c>
-      <c r="I14">
-        <v>0.04818625008598272</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.09715619283487864</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1294712500343227</v>
+        <v>0.1437736876054436</v>
       </c>
       <c r="C15">
-        <v>0.1180225016069843</v>
+        <v>0.1361528682964354</v>
       </c>
       <c r="D15">
-        <v>0.09132602573313606</v>
+        <v>0.1099272434649168</v>
       </c>
       <c r="E15">
-        <v>0.1402568982036875</v>
+        <v>0.1637950207673488</v>
       </c>
       <c r="F15">
-        <v>0.1191563745103655</v>
+        <v>0.1425960970234589</v>
       </c>
       <c r="G15">
-        <v>0.1198947822688256</v>
+        <v>0.1394301058488894</v>
       </c>
       <c r="H15">
-        <v>0.1423035937233249</v>
-      </c>
-      <c r="I15">
-        <v>0.1395685739193535</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.1643249769935071</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.04167839665659537</v>
+        <v>0.05028495698300706</v>
       </c>
       <c r="C16">
-        <v>0.03382935800498243</v>
+        <v>0.03892331527098234</v>
       </c>
       <c r="D16">
-        <v>0.1270214166301743</v>
+        <v>0.1418840010783541</v>
       </c>
       <c r="E16">
-        <v>0.2634860757824309</v>
+        <v>0.2617386289825233</v>
       </c>
       <c r="F16">
-        <v>0.3539538249925622</v>
+        <v>0.3648489263312689</v>
       </c>
       <c r="G16">
-        <v>0.04750069541560475</v>
+        <v>0.05455114795161722</v>
       </c>
       <c r="H16">
-        <v>0.0763249796767532</v>
-      </c>
-      <c r="I16">
-        <v>0.056205252840897</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.08776902340224718</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.08304186023647588</v>
+        <v>0.09485525038507564</v>
       </c>
       <c r="C17">
-        <v>0.1881202360302758</v>
+        <v>0.2117699621125293</v>
       </c>
       <c r="D17">
-        <v>0.1176243100800147</v>
+        <v>0.1321581346789344</v>
       </c>
       <c r="E17">
-        <v>0.09667906513055782</v>
+        <v>0.1089609923860542</v>
       </c>
       <c r="F17">
-        <v>0.1595999288087934</v>
+        <v>0.1794898355782225</v>
       </c>
       <c r="G17">
-        <v>0.09564202365124949</v>
+        <v>0.107301165284069</v>
       </c>
       <c r="H17">
-        <v>0.1329680545543377</v>
-      </c>
-      <c r="I17">
-        <v>0.126324521508295</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.1654646595751149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.06210501547567468</v>
+        <v>0.0723139415760025</v>
       </c>
       <c r="C18">
-        <v>0.07501115847346311</v>
+        <v>0.08623748527188319</v>
       </c>
       <c r="D18">
-        <v>0.147814281472065</v>
+        <v>0.1623464216966405</v>
       </c>
       <c r="E18">
-        <v>0.1647346100631625</v>
+        <v>0.1858434035741978</v>
       </c>
       <c r="F18">
-        <v>0.2658395550429738</v>
+        <v>0.3033734824804742</v>
       </c>
       <c r="G18">
-        <v>0.1168459812985445</v>
+        <v>0.1348023307274629</v>
       </c>
       <c r="H18">
-        <v>0.04728540562983228</v>
-      </c>
-      <c r="I18">
-        <v>0.1203639925442843</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.05508293467333894</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.06210720474890661</v>
+        <v>0.06156022066307821</v>
       </c>
       <c r="C19">
-        <v>0.03305999525334569</v>
+        <v>0.035516124382738</v>
       </c>
       <c r="D19">
-        <v>0.1603469662306711</v>
+        <v>0.164181935067812</v>
       </c>
       <c r="E19">
-        <v>0.1994886178160223</v>
+        <v>0.203122947605973</v>
       </c>
       <c r="F19">
-        <v>0.4080128611388326</v>
+        <v>0.437334200881129</v>
       </c>
       <c r="G19">
-        <v>0.04368535773048575</v>
+        <v>0.04630825614465794</v>
       </c>
       <c r="H19">
-        <v>0.05194781136692204</v>
-      </c>
-      <c r="I19">
-        <v>0.04135118571481389</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.05197631525461196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1457969466167952</v>
+        <v>0.1810060449302058</v>
       </c>
       <c r="C20">
-        <v>0.261426686465516</v>
+        <v>0.3177759905770332</v>
       </c>
       <c r="D20">
-        <v>0.02495370382373951</v>
+        <v>0.03131935366498651</v>
       </c>
       <c r="E20">
-        <v>0.03722411147801982</v>
+        <v>0.04693059316400428</v>
       </c>
       <c r="F20">
-        <v>0.06398272640463833</v>
+        <v>0.08378426886466261</v>
       </c>
       <c r="G20">
-        <v>0.1219423973681867</v>
+        <v>0.1486019631129981</v>
       </c>
       <c r="H20">
-        <v>0.1493709248269698</v>
-      </c>
-      <c r="I20">
-        <v>0.1953025030161345</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.1905817856861095</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.147787644831896</v>
+        <v>0.1671645863736117</v>
       </c>
       <c r="C21">
-        <v>0.126158677474692</v>
+        <v>0.1441978210790663</v>
       </c>
       <c r="D21">
-        <v>0.1041554260868251</v>
+        <v>0.1164201641086922</v>
       </c>
       <c r="E21">
-        <v>0.1248933403627241</v>
+        <v>0.1388053998703383</v>
       </c>
       <c r="F21">
-        <v>0.1819009101675388</v>
+        <v>0.2105485797042483</v>
       </c>
       <c r="G21">
-        <v>0.09511627857340713</v>
+        <v>0.107852413461156</v>
       </c>
       <c r="H21">
-        <v>0.100759047882549</v>
-      </c>
-      <c r="I21">
-        <v>0.1192286746203679</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.1150110354028873</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1551136608520025</v>
+        <v>0.17834839440182</v>
       </c>
       <c r="C22">
-        <v>0.1500448247383139</v>
+        <v>0.182601543450453</v>
       </c>
       <c r="D22">
-        <v>0.08933415756597299</v>
+        <v>0.1071400794551464</v>
       </c>
       <c r="E22">
-        <v>0.09974197051465904</v>
+        <v>0.1206563178460922</v>
       </c>
       <c r="F22">
-        <v>0.07151258933049247</v>
+        <v>0.08529417482691432</v>
       </c>
       <c r="G22">
-        <v>0.1384514093787554</v>
+        <v>0.1661902260089464</v>
       </c>
       <c r="H22">
-        <v>0.1298313913284572</v>
-      </c>
-      <c r="I22">
-        <v>0.1659699962913464</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.1597692640106279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.05203311264685689</v>
+        <v>0.05458968348065235</v>
       </c>
       <c r="C23">
-        <v>0.04290830226219891</v>
+        <v>0.04462682509193956</v>
       </c>
       <c r="D23">
-        <v>0.171019519162041</v>
+        <v>0.1836234734244557</v>
       </c>
       <c r="E23">
-        <v>0.1966353938218058</v>
+        <v>0.2019967490282372</v>
       </c>
       <c r="F23">
-        <v>0.3866864488764927</v>
+        <v>0.4125114787205669</v>
       </c>
       <c r="G23">
-        <v>0.04452754547857837</v>
+        <v>0.04704877997700986</v>
       </c>
       <c r="H23">
-        <v>0.05407265829653807</v>
-      </c>
-      <c r="I23">
-        <v>0.0521170194554883</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.0556030102771382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1104350723714949</v>
+        <v>0.130358079547219</v>
       </c>
       <c r="C24">
-        <v>0.2178033574521923</v>
+        <v>0.2718621332205192</v>
       </c>
       <c r="D24">
-        <v>0.0383288384346119</v>
+        <v>0.04754048052535749</v>
       </c>
       <c r="E24">
-        <v>0.05320611582582211</v>
+        <v>0.06596829233850146</v>
       </c>
       <c r="F24">
-        <v>0.1600118723587864</v>
+        <v>0.197205337236859</v>
       </c>
       <c r="G24">
-        <v>0.1273810272869334</v>
+        <v>0.1551687876725827</v>
       </c>
       <c r="H24">
-        <v>0.1154064458144036</v>
-      </c>
-      <c r="I24">
-        <v>0.1774272704557553</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.1318968894589611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.06391898878409213</v>
+        <v>0.06826729209263949</v>
       </c>
       <c r="C25">
-        <v>0.04440858775546375</v>
+        <v>0.04730722705962082</v>
       </c>
       <c r="D25">
-        <v>0.1016842163969957</v>
+        <v>0.106898203703939</v>
       </c>
       <c r="E25">
-        <v>0.1297469687457954</v>
+        <v>0.1371825095111633</v>
       </c>
       <c r="F25">
-        <v>0.4888176077692715</v>
+        <v>0.5215267574435665</v>
       </c>
       <c r="G25">
-        <v>0.04442351083056624</v>
+        <v>0.04635221205684247</v>
       </c>
       <c r="H25">
-        <v>0.0722576355764067</v>
-      </c>
-      <c r="I25">
-        <v>0.05474248414140867</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.07246579813222845</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.1726077381966838</v>
+        <v>0.212199067583433</v>
       </c>
       <c r="C26">
-        <v>0.1621128298472328</v>
+        <v>0.2221943215732781</v>
       </c>
       <c r="D26">
-        <v>0.0377257533183564</v>
+        <v>0.05080473348752856</v>
       </c>
       <c r="E26">
-        <v>0.05384362247324536</v>
+        <v>0.06684245150339797</v>
       </c>
       <c r="F26">
-        <v>0.09251103331275315</v>
+        <v>0.1375420660038698</v>
       </c>
       <c r="G26">
-        <v>0.1125606269699363</v>
+        <v>0.1469502331329466</v>
       </c>
       <c r="H26">
-        <v>0.1301470373386761</v>
-      </c>
-      <c r="I26">
-        <v>0.238491358543116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.1634671267155461</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.08091903621601736</v>
+        <v>0.08445613132746997</v>
       </c>
       <c r="C27">
-        <v>0.0600258781482241</v>
+        <v>0.0685778050596605</v>
       </c>
       <c r="D27">
-        <v>0.158094626348653</v>
+        <v>0.1795839723274865</v>
       </c>
       <c r="E27">
-        <v>0.1413888671423811</v>
+        <v>0.1487589582718561</v>
       </c>
       <c r="F27">
-        <v>0.2889488533906707</v>
+        <v>0.3229859739301846</v>
       </c>
       <c r="G27">
-        <v>0.1028359290380957</v>
+        <v>0.1069918144990644</v>
       </c>
       <c r="H27">
-        <v>0.07494911012729252</v>
-      </c>
-      <c r="I27">
-        <v>0.09283769958866533</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0.08864534458427782</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.06425003204318533</v>
+        <v>0.06628935633456828</v>
       </c>
       <c r="C28">
-        <v>0.0424155359357717</v>
+        <v>0.04592387835388777</v>
       </c>
       <c r="D28">
-        <v>0.186282691129125</v>
+        <v>0.1996677645122397</v>
       </c>
       <c r="E28">
-        <v>0.2405767744923263</v>
+        <v>0.2463349701983115</v>
       </c>
       <c r="F28">
-        <v>0.3019922929002117</v>
+        <v>0.328252023471909</v>
       </c>
       <c r="G28">
-        <v>0.04939295331952286</v>
+        <v>0.05200972524961548</v>
       </c>
       <c r="H28">
-        <v>0.0592827521028853</v>
-      </c>
-      <c r="I28">
-        <v>0.05580696807697182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.06152228187946825</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.07732727015918386</v>
+        <v>0.08073792772414394</v>
       </c>
       <c r="C29">
-        <v>0.03955800233784865</v>
+        <v>0.0441420732662126</v>
       </c>
       <c r="D29">
-        <v>0.109636624333314</v>
+        <v>0.1161027591390548</v>
       </c>
       <c r="E29">
-        <v>0.1277175906329121</v>
+        <v>0.1404037767144012</v>
       </c>
       <c r="F29">
-        <v>0.4530226769152232</v>
+        <v>0.4883732698578063</v>
       </c>
       <c r="G29">
-        <v>0.06473210604299939</v>
+        <v>0.06194978325760428</v>
       </c>
       <c r="H29">
-        <v>0.06601018419656579</v>
-      </c>
-      <c r="I29">
-        <v>0.0619955453819531</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.06829041004077706</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.1739654519330982</v>
+        <v>0.1788009443431602</v>
       </c>
       <c r="C30">
-        <v>0.3936119388523407</v>
+        <v>0.4068117461775275</v>
       </c>
       <c r="D30">
-        <v>0.008133259214299162</v>
+        <v>0.007751440163345442</v>
       </c>
       <c r="E30">
-        <v>0.007826269756932437</v>
+        <v>0.007458862333645557</v>
       </c>
       <c r="F30">
-        <v>0.01114610489676255</v>
+        <v>0.01062284820153147</v>
       </c>
       <c r="G30">
-        <v>0.1727104278601137</v>
+        <v>0.1675942972221886</v>
       </c>
       <c r="H30">
-        <v>0.2122700906247029</v>
-      </c>
-      <c r="I30">
-        <v>0.02033645686175051</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.2209598615586012</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.04152033678212467</v>
+        <v>0.03886936867294171</v>
       </c>
       <c r="C31">
-        <v>0.03128320408127971</v>
+        <v>0.02993551025228551</v>
       </c>
       <c r="D31">
-        <v>0.1408404263868716</v>
+        <v>0.1478031884993865</v>
       </c>
       <c r="E31">
-        <v>0.1801977571583273</v>
+        <v>0.1900030511210502</v>
       </c>
       <c r="F31">
-        <v>0.4325258380751954</v>
+        <v>0.4634564468261899</v>
       </c>
       <c r="G31">
-        <v>0.03794495408729998</v>
+        <v>0.03607663160204017</v>
       </c>
       <c r="H31">
-        <v>0.0961488526529314</v>
-      </c>
-      <c r="I31">
-        <v>0.03953863077596992</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.09385580302610605</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.1545210463843162</v>
+        <v>0.1769414145341676</v>
       </c>
       <c r="C32">
-        <v>0.1536072691738669</v>
+        <v>0.183051092197077</v>
       </c>
       <c r="D32">
-        <v>0.09669055411983059</v>
+        <v>0.1066670881448627</v>
       </c>
       <c r="E32">
-        <v>0.08753809822908956</v>
+        <v>0.09764002528565749</v>
       </c>
       <c r="F32">
-        <v>0.09440620337457736</v>
+        <v>0.1065784262276504</v>
       </c>
       <c r="G32">
-        <v>0.1626772414696295</v>
+        <v>0.1895843179628995</v>
       </c>
       <c r="H32">
-        <v>0.116646857905209</v>
-      </c>
-      <c r="I32">
-        <v>0.1339127293434808</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.1395376356476853</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.1100621348863911</v>
+        <v>0.1223074754455933</v>
       </c>
       <c r="C33">
-        <v>0.08952516214728169</v>
+        <v>0.1003702592463442</v>
       </c>
       <c r="D33">
-        <v>0.1391524344656271</v>
+        <v>0.1590745924208949</v>
       </c>
       <c r="E33">
-        <v>0.1607406550520231</v>
+        <v>0.1813240152271146</v>
       </c>
       <c r="F33">
-        <v>0.158826301525948</v>
+        <v>0.1781197360132403</v>
       </c>
       <c r="G33">
-        <v>0.09176565491915785</v>
+        <v>0.1033808469613204</v>
       </c>
       <c r="H33">
-        <v>0.1425835794501028</v>
-      </c>
-      <c r="I33">
-        <v>0.1073440775534684</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.1554230746854921</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.05614886625294068</v>
+        <v>0.06512301769959518</v>
       </c>
       <c r="C34">
-        <v>0.06813551863145423</v>
+        <v>0.07792072897071597</v>
       </c>
       <c r="D34">
-        <v>0.1301081139349254</v>
+        <v>0.1381453430382854</v>
       </c>
       <c r="E34">
-        <v>0.184030120118032</v>
+        <v>0.1968187858330699</v>
       </c>
       <c r="F34">
-        <v>0.3795698834105172</v>
+        <v>0.3874903005029222</v>
       </c>
       <c r="G34">
-        <v>0.05472930689165564</v>
+        <v>0.0598526026537351</v>
       </c>
       <c r="H34">
-        <v>0.06627037967381232</v>
-      </c>
-      <c r="I34">
-        <v>0.06100781108666245</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.07464922130167631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.0483438787029196</v>
+        <v>0.05014957860889567</v>
       </c>
       <c r="C35">
-        <v>0.03723840304619652</v>
+        <v>0.03863218653957547</v>
       </c>
       <c r="D35">
-        <v>0.1168818508977093</v>
+        <v>0.1247364816449905</v>
       </c>
       <c r="E35">
-        <v>0.1986206132644088</v>
+        <v>0.206284140209702</v>
       </c>
       <c r="F35">
-        <v>0.4544060579775438</v>
+        <v>0.4762231223670076</v>
       </c>
       <c r="G35">
-        <v>0.04401053074177921</v>
+        <v>0.04547687984485123</v>
       </c>
       <c r="H35">
-        <v>0.05621276808072797</v>
-      </c>
-      <c r="I35">
-        <v>0.04428589728871475</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.05849761078497746</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.0420964905295706</v>
+        <v>0.04406913654309947</v>
       </c>
       <c r="C36">
-        <v>0.03809732816443946</v>
+        <v>0.04127402308076223</v>
       </c>
       <c r="D36">
-        <v>0.1674802914814147</v>
+        <v>0.1834859144648897</v>
       </c>
       <c r="E36">
-        <v>0.2020183653457572</v>
+        <v>0.2002907516233982</v>
       </c>
       <c r="F36">
-        <v>0.345340835640865</v>
+        <v>0.3963454880519687</v>
       </c>
       <c r="G36">
-        <v>0.03503491146290264</v>
+        <v>0.03771093543199645</v>
       </c>
       <c r="H36">
-        <v>0.0951693305555065</v>
-      </c>
-      <c r="I36">
-        <v>0.07476244681954389</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.09682375080388525</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.07338708017909641</v>
+        <v>0.07948813261492473</v>
       </c>
       <c r="C37">
-        <v>0.1066591873080146</v>
+        <v>0.1182105596136042</v>
       </c>
       <c r="D37">
-        <v>0.08749394448474093</v>
+        <v>0.1108283254218179</v>
       </c>
       <c r="E37">
-        <v>0.06609741297166527</v>
+        <v>0.07886793859813421</v>
       </c>
       <c r="F37">
-        <v>0.2885607922928832</v>
+        <v>0.3371607743492129</v>
       </c>
       <c r="G37">
-        <v>0.1474392136361125</v>
+        <v>0.1657822455786221</v>
       </c>
       <c r="H37">
-        <v>0.09635833564001207</v>
-      </c>
-      <c r="I37">
-        <v>0.134004033487475</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.109662023823684</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.1238166407967318</v>
+        <v>0.1382181636829633</v>
       </c>
       <c r="C38">
-        <v>0.08703640165715171</v>
+        <v>0.1003498374263297</v>
       </c>
       <c r="D38">
-        <v>0.1300377680346401</v>
+        <v>0.1504191651142604</v>
       </c>
       <c r="E38">
-        <v>0.1313359414782864</v>
+        <v>0.1508477075196183</v>
       </c>
       <c r="F38">
-        <v>0.1731253599323853</v>
+        <v>0.1894619032882341</v>
       </c>
       <c r="G38">
-        <v>0.1240404736312029</v>
+        <v>0.1341152557942591</v>
       </c>
       <c r="H38">
-        <v>0.1209099364349533</v>
-      </c>
-      <c r="I38">
-        <v>0.1096974780346487</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.1365879671743352</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.06332225856553983</v>
+        <v>0.06412754908998518</v>
       </c>
       <c r="C39">
-        <v>0.04498891265561622</v>
+        <v>0.0473403538627388</v>
       </c>
       <c r="D39">
-        <v>0.1618941378610395</v>
+        <v>0.1711730876900627</v>
       </c>
       <c r="E39">
-        <v>0.1805612794471965</v>
+        <v>0.1965616027575204</v>
       </c>
       <c r="F39">
-        <v>0.3923738633275756</v>
+        <v>0.4091736454228272</v>
       </c>
       <c r="G39">
-        <v>0.05504005583026491</v>
+        <v>0.05571342479498536</v>
       </c>
       <c r="H39">
-        <v>0.05177934739405909</v>
-      </c>
-      <c r="I39">
-        <v>0.05004014491870841</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.05591033638188031</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.1471537132162049</v>
+        <v>0.1687877892667408</v>
       </c>
       <c r="C40">
-        <v>0.3377192934133616</v>
+        <v>0.4168757366888078</v>
       </c>
       <c r="D40">
-        <v>0.02846884210261784</v>
+        <v>0.03237374508003495</v>
       </c>
       <c r="E40">
-        <v>0.0404512332953753</v>
+        <v>0.05144167366987508</v>
       </c>
       <c r="F40">
-        <v>0.05899285019060461</v>
+        <v>0.07260234989960211</v>
       </c>
       <c r="G40">
-        <v>0.110846983578146</v>
+        <v>0.1260051823339002</v>
       </c>
       <c r="H40">
-        <v>0.1152560464375197</v>
-      </c>
-      <c r="I40">
-        <v>0.1611110377661701</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.1319135230610393</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.1130804281762895</v>
+        <v>0.1327404822515129</v>
       </c>
       <c r="C41">
-        <v>0.1951418032389391</v>
+        <v>0.2221233561551599</v>
       </c>
       <c r="D41">
-        <v>0.1385885017894064</v>
+        <v>0.1545207526252262</v>
       </c>
       <c r="E41">
-        <v>0.1185049779763484</v>
+        <v>0.1361561738778045</v>
       </c>
       <c r="F41">
-        <v>0.07113321354961401</v>
+        <v>0.08224827301740244</v>
       </c>
       <c r="G41">
-        <v>0.108668157983104</v>
+        <v>0.1254152982629926</v>
       </c>
       <c r="H41">
-        <v>0.1367960666585371</v>
-      </c>
-      <c r="I41">
-        <v>0.1180868506277617</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.1467956638099014</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.07036240925168337</v>
+        <v>0.07798435714626031</v>
       </c>
       <c r="C42">
-        <v>0.05674208331742624</v>
+        <v>0.06207912405345025</v>
       </c>
       <c r="D42">
-        <v>0.1740857320423647</v>
+        <v>0.1883325763755185</v>
       </c>
       <c r="E42">
-        <v>0.1660817256890246</v>
+        <v>0.1807692243355933</v>
       </c>
       <c r="F42">
-        <v>0.3152174137866546</v>
+        <v>0.3351954811987117</v>
       </c>
       <c r="G42">
-        <v>0.07707957336293753</v>
+        <v>0.08031903884968768</v>
       </c>
       <c r="H42">
-        <v>0.06749686898218898</v>
-      </c>
-      <c r="I42">
-        <v>0.07293419356771982</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.07532019804077829</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.05816559200815036</v>
+        <v>0.06063224700308925</v>
       </c>
       <c r="C43">
-        <v>0.04584034031548441</v>
+        <v>0.04674578151744017</v>
       </c>
       <c r="D43">
-        <v>0.1604816352088083</v>
+        <v>0.1685874177296054</v>
       </c>
       <c r="E43">
-        <v>0.1859966326537368</v>
+        <v>0.2019594590682335</v>
       </c>
       <c r="F43">
-        <v>0.3846172493239599</v>
+        <v>0.415313246938897</v>
       </c>
       <c r="G43">
-        <v>0.05050786714544534</v>
+        <v>0.05096531746009039</v>
       </c>
       <c r="H43">
-        <v>0.05525272963633649</v>
-      </c>
-      <c r="I43">
-        <v>0.05913795370807843</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.05579653028264428</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.028304968921499</v>
+        <v>0.02760643526500934</v>
       </c>
       <c r="C44">
-        <v>0.03684665394237371</v>
+        <v>0.03048552303643953</v>
       </c>
       <c r="D44">
-        <v>0.08285347826800304</v>
+        <v>0.08476952605009223</v>
       </c>
       <c r="E44">
-        <v>0.2096149481757658</v>
+        <v>0.225512562152349</v>
       </c>
       <c r="F44">
-        <v>0.3630736055635429</v>
+        <v>0.392060481903436</v>
       </c>
       <c r="G44">
-        <v>0.05466768885196716</v>
+        <v>0.0564729360452321</v>
       </c>
       <c r="H44">
-        <v>0.1718197648676164</v>
-      </c>
-      <c r="I44">
-        <v>0.052818891409232</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.1830925355474418</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.1397504264792582</v>
+        <v>0.1849573679158265</v>
       </c>
       <c r="C45">
-        <v>0.1118397278317504</v>
+        <v>0.1432571536474783</v>
       </c>
       <c r="D45">
-        <v>0.04452325109381928</v>
+        <v>0.06017028934960282</v>
       </c>
       <c r="E45">
-        <v>0.07665936899668682</v>
+        <v>0.105244767668941</v>
       </c>
       <c r="F45">
-        <v>0.07836582050589033</v>
+        <v>0.09655711293596361</v>
       </c>
       <c r="G45">
-        <v>0.2122787443850626</v>
+        <v>0.2618219871658438</v>
       </c>
       <c r="H45">
-        <v>0.1295728101604652</v>
-      </c>
-      <c r="I45">
-        <v>0.2070098505470673</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.147991321316344</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.04497679013877642</v>
+        <v>0.04498911828903059</v>
       </c>
       <c r="C46">
-        <v>0.04992506823497301</v>
+        <v>0.05327813440020906</v>
       </c>
       <c r="D46">
-        <v>0.1602475402551764</v>
+        <v>0.1687621627616321</v>
       </c>
       <c r="E46">
-        <v>0.2006451639109815</v>
+        <v>0.2004642353392606</v>
       </c>
       <c r="F46">
-        <v>0.4089573381985352</v>
+        <v>0.433567181602319</v>
       </c>
       <c r="G46">
-        <v>0.04102070246124715</v>
+        <v>0.04520360689127889</v>
       </c>
       <c r="H46">
-        <v>0.04952001841291583</v>
-      </c>
-      <c r="I46">
-        <v>0.0447073783873944</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.05373556071626975</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.1369597002297051</v>
+        <v>0.1658733830267412</v>
       </c>
       <c r="C47">
-        <v>0.1483001025114502</v>
+        <v>0.1837673195643261</v>
       </c>
       <c r="D47">
-        <v>0.07243444423034594</v>
+        <v>0.0907738351602078</v>
       </c>
       <c r="E47">
-        <v>0.07928689452945867</v>
+        <v>0.0992154400540927</v>
       </c>
       <c r="F47">
-        <v>0.09029204757709747</v>
+        <v>0.1128340570788063</v>
       </c>
       <c r="G47">
-        <v>0.1450164534346181</v>
+        <v>0.1746332713556853</v>
       </c>
       <c r="H47">
-        <v>0.1436577231392445</v>
-      </c>
-      <c r="I47">
-        <v>0.1840526343480801</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.1729026937601405</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.05317507230917637</v>
+        <v>0.05792479078223801</v>
       </c>
       <c r="C48">
-        <v>0.0419252417511534</v>
+        <v>0.04368027537797033</v>
       </c>
       <c r="D48">
-        <v>0.1621440419586159</v>
+        <v>0.1597630335159193</v>
       </c>
       <c r="E48">
-        <v>0.1296329107807943</v>
+        <v>0.134241593356738</v>
       </c>
       <c r="F48">
-        <v>0.4502782119546971</v>
+        <v>0.4806664959501627</v>
       </c>
       <c r="G48">
-        <v>0.05337633584322162</v>
+        <v>0.05795063304187113</v>
       </c>
       <c r="H48">
-        <v>0.0629849117418982</v>
-      </c>
-      <c r="I48">
-        <v>0.04648327366044308</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.06577317797510063</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.1672447699438878</v>
+        <v>0.1922913748944026</v>
       </c>
       <c r="C49">
-        <v>0.1153492738574333</v>
+        <v>0.1383258369649983</v>
       </c>
       <c r="D49">
-        <v>0.1630726551547994</v>
+        <v>0.1796400738074543</v>
       </c>
       <c r="E49">
-        <v>0.09735513096574244</v>
+        <v>0.1208210626816831</v>
       </c>
       <c r="F49">
-        <v>0.06984249199680377</v>
+        <v>0.08374831537900179</v>
       </c>
       <c r="G49">
-        <v>0.1081718201796518</v>
+        <v>0.1253936941102352</v>
       </c>
       <c r="H49">
-        <v>0.1370261864812321</v>
-      </c>
-      <c r="I49">
-        <v>0.1419376714204493</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.1597796421622246</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.1241915531830838</v>
+        <v>0.1471603120435886</v>
       </c>
       <c r="C50">
-        <v>0.176173917414731</v>
+        <v>0.2135865085494983</v>
       </c>
       <c r="D50">
-        <v>0.08054976517757687</v>
+        <v>0.09771530157286171</v>
       </c>
       <c r="E50">
-        <v>0.08857732647052226</v>
+        <v>0.1090564052402766</v>
       </c>
       <c r="F50">
-        <v>0.05735404744459848</v>
+        <v>0.06958298598334191</v>
       </c>
       <c r="G50">
-        <v>0.1627172335815667</v>
+        <v>0.1910239991433873</v>
       </c>
       <c r="H50">
-        <v>0.1344260189081463</v>
-      </c>
-      <c r="I50">
-        <v>0.1760101378197746</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.1718744874670456</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.1156337524413558</v>
+        <v>0.127486596015772</v>
       </c>
       <c r="C51">
-        <v>0.09885168390893241</v>
+        <v>0.1091715256810987</v>
       </c>
       <c r="D51">
-        <v>0.1496699997906659</v>
+        <v>0.1706930616651061</v>
       </c>
       <c r="E51">
-        <v>0.1587385089553597</v>
+        <v>0.1811843228636273</v>
       </c>
       <c r="F51">
-        <v>0.1571528730473179</v>
+        <v>0.1826369340925756</v>
       </c>
       <c r="G51">
-        <v>0.09985906768958017</v>
+        <v>0.1120180914958466</v>
       </c>
       <c r="H51">
-        <v>0.1071238452392326</v>
-      </c>
-      <c r="I51">
-        <v>0.1129702689275555</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.1168094681859738</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.1020586616372366</v>
+        <v>0.1330959598883898</v>
       </c>
       <c r="C52">
-        <v>0.4378048449964783</v>
+        <v>0.4912595298907494</v>
       </c>
       <c r="D52">
-        <v>0.03939441940740718</v>
+        <v>0.04423762473132824</v>
       </c>
       <c r="E52">
-        <v>0.06811246423096459</v>
+        <v>0.07679948601131266</v>
       </c>
       <c r="F52">
-        <v>0.02918702657979335</v>
+        <v>0.03418835599452755</v>
       </c>
       <c r="G52">
-        <v>0.0692951533482168</v>
+        <v>0.08612379194834026</v>
       </c>
       <c r="H52">
-        <v>0.1110272686760719</v>
-      </c>
-      <c r="I52">
-        <v>0.1431201611238314</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.1342952515353519</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.131539122521688</v>
+        <v>0.1497653389106908</v>
       </c>
       <c r="C53">
-        <v>0.1707327752752081</v>
+        <v>0.1998029973190479</v>
       </c>
       <c r="D53">
-        <v>0.1051448805515471</v>
+        <v>0.1350424038318674</v>
       </c>
       <c r="E53">
-        <v>0.09269460128264941</v>
+        <v>0.1140294838948726</v>
       </c>
       <c r="F53">
-        <v>0.07505844193388321</v>
+        <v>0.08958572759512418</v>
       </c>
       <c r="G53">
-        <v>0.1239158892393688</v>
+        <v>0.1429614379940906</v>
       </c>
       <c r="H53">
-        <v>0.1411786688980368</v>
-      </c>
-      <c r="I53">
-        <v>0.1597356202976185</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.1688126104543067</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.1195568184650423</v>
+        <v>0.1462423342819924</v>
       </c>
       <c r="C54">
-        <v>0.1737891701502749</v>
+        <v>0.2106402188078344</v>
       </c>
       <c r="D54">
-        <v>0.08015842524563326</v>
+        <v>0.09723162672075818</v>
       </c>
       <c r="E54">
-        <v>0.08043363618661584</v>
+        <v>0.09784106679754699</v>
       </c>
       <c r="F54">
-        <v>0.08028817691376024</v>
+        <v>0.1006695563591188</v>
       </c>
       <c r="G54">
-        <v>0.1418719120514427</v>
+        <v>0.1728566238227545</v>
       </c>
       <c r="H54">
-        <v>0.1448650409285278</v>
-      </c>
-      <c r="I54">
-        <v>0.1790368200587028</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.1745185732099946</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.1406782334715</v>
+        <v>0.1603939790025879</v>
       </c>
       <c r="C55">
-        <v>0.1580122258080923</v>
+        <v>0.1922810782513071</v>
       </c>
       <c r="D55">
-        <v>0.08253672149552785</v>
+        <v>0.09758891619550068</v>
       </c>
       <c r="E55">
-        <v>0.07672367702540525</v>
+        <v>0.0902602419167276</v>
       </c>
       <c r="F55">
-        <v>0.1173016984689568</v>
+        <v>0.1421855881499692</v>
       </c>
       <c r="G55">
-        <v>0.1261851274964634</v>
+        <v>0.1457371320023109</v>
       </c>
       <c r="H55">
-        <v>0.1406903115457509</v>
-      </c>
-      <c r="I55">
-        <v>0.1578720046883035</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.1715530644815967</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.1162891883477749</v>
+        <v>0.1291303244402839</v>
       </c>
       <c r="C56">
-        <v>0.1055369946691438</v>
+        <v>0.1146759101957087</v>
       </c>
       <c r="D56">
-        <v>0.1445854151365647</v>
+        <v>0.1664726441400274</v>
       </c>
       <c r="E56">
-        <v>0.1542675121490284</v>
+        <v>0.1776222612717832</v>
       </c>
       <c r="F56">
-        <v>0.1802793478706156</v>
+        <v>0.2131254054338018</v>
       </c>
       <c r="G56">
-        <v>0.09738281494154444</v>
+        <v>0.1059360803685312</v>
       </c>
       <c r="H56">
-        <v>0.08805430896525468</v>
-      </c>
-      <c r="I56">
-        <v>0.1136044179200734</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.09303737414986397</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.1551046312806448</v>
+        <v>0.2020402864903704</v>
       </c>
       <c r="C57">
-        <v>0.1891054033026715</v>
+        <v>0.2531265268929213</v>
       </c>
       <c r="D57">
-        <v>0.0351811176797783</v>
+        <v>0.04801877741536811</v>
       </c>
       <c r="E57">
-        <v>0.05240220861019255</v>
+        <v>0.07043275094168649</v>
       </c>
       <c r="F57">
-        <v>0.0698260406732658</v>
+        <v>0.09171104447985182</v>
       </c>
       <c r="G57">
-        <v>0.1198935735917154</v>
+        <v>0.1482294885228855</v>
       </c>
       <c r="H57">
-        <v>0.1508005229646539</v>
-      </c>
-      <c r="I57">
-        <v>0.2276865018970778</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.1864411252569164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.158784565100389</v>
+        <v>0.2001078773187632</v>
       </c>
       <c r="C58">
-        <v>0.1898789789070933</v>
+        <v>0.2286413214387657</v>
       </c>
       <c r="D58">
-        <v>0.05701080935162743</v>
+        <v>0.06939958951922497</v>
       </c>
       <c r="E58">
-        <v>0.07005379294774954</v>
+        <v>0.08229378560466617</v>
       </c>
       <c r="F58">
-        <v>0.07059580263787395</v>
+        <v>0.08258686354504495</v>
       </c>
       <c r="G58">
-        <v>0.1379621565195106</v>
+        <v>0.1690992491015546</v>
       </c>
       <c r="H58">
-        <v>0.1394957183688975</v>
-      </c>
-      <c r="I58">
-        <v>0.1762181761668586</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.1678713134719806</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.06783686615118194</v>
+        <v>0.05910177105972965</v>
       </c>
       <c r="C59">
-        <v>0.4450746334634016</v>
+        <v>0.4727397856904521</v>
       </c>
       <c r="D59">
-        <v>0.003393000607586766</v>
+        <v>0.002892541379858101</v>
       </c>
       <c r="E59">
-        <v>0.003015620654543614</v>
+        <v>0.002459013512296137</v>
       </c>
       <c r="F59">
-        <v>0.01321796329936177</v>
+        <v>0.01123003855319079</v>
       </c>
       <c r="G59">
-        <v>0.1589169034465024</v>
+        <v>0.1617322572262409</v>
       </c>
       <c r="H59">
-        <v>0.28401074642206</v>
-      </c>
-      <c r="I59">
-        <v>0.02453426595536179</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.2898445925782323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.1481609398733964</v>
+        <v>0.1762462144236179</v>
       </c>
       <c r="C60">
-        <v>0.1396173784546834</v>
+        <v>0.1638991452698509</v>
       </c>
       <c r="D60">
-        <v>0.07329593053164482</v>
+        <v>0.0920736359324389</v>
       </c>
       <c r="E60">
-        <v>0.09846299499056745</v>
+        <v>0.1200535142268633</v>
       </c>
       <c r="F60">
-        <v>0.1176812877883666</v>
+        <v>0.1451465868645696</v>
       </c>
       <c r="G60">
-        <v>0.1255547627295761</v>
+        <v>0.1485164027331748</v>
       </c>
       <c r="H60">
-        <v>0.128626960932043</v>
-      </c>
-      <c r="I60">
-        <v>0.1685997446997221</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.1540645005494846</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.1330110862240545</v>
+        <v>0.1742584812084861</v>
       </c>
       <c r="C61">
-        <v>0.228908401166946</v>
+        <v>0.2809869717892711</v>
       </c>
       <c r="D61">
-        <v>0.03333444300101074</v>
+        <v>0.04338608585342606</v>
       </c>
       <c r="E61">
-        <v>0.0433062095580095</v>
+        <v>0.0569914183446154</v>
       </c>
       <c r="F61">
-        <v>0.08393103118363153</v>
+        <v>0.1132070969598002</v>
       </c>
       <c r="G61">
-        <v>0.1141599060393551</v>
+        <v>0.1460571588691294</v>
       </c>
       <c r="H61">
-        <v>0.1486452056235305</v>
-      </c>
-      <c r="I61">
-        <v>0.2147037172034621</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.1851127869752718</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.1570862319562142</v>
+        <v>0.1840899539750769</v>
       </c>
       <c r="C62">
-        <v>0.1287226351333442</v>
+        <v>0.1511189729116206</v>
       </c>
       <c r="D62">
-        <v>0.06254704897848343</v>
+        <v>0.07576917204718923</v>
       </c>
       <c r="E62">
-        <v>0.06379269727245369</v>
+        <v>0.07985406343687912</v>
       </c>
       <c r="F62">
-        <v>0.1238748797002344</v>
+        <v>0.1528437081552891</v>
       </c>
       <c r="G62">
-        <v>0.1766620038249975</v>
+        <v>0.2051085245252285</v>
       </c>
       <c r="H62">
-        <v>0.1294458426082576</v>
-      </c>
-      <c r="I62">
-        <v>0.157868660526015</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.1512156049487164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.114216701400091</v>
+        <v>0.1328761361070692</v>
       </c>
       <c r="C63">
-        <v>0.1093145324430796</v>
+        <v>0.123738833425855</v>
       </c>
       <c r="D63">
-        <v>0.1324445488568416</v>
+        <v>0.1522504335723232</v>
       </c>
       <c r="E63">
-        <v>0.1461646816330888</v>
+        <v>0.1613229717708135</v>
       </c>
       <c r="F63">
-        <v>0.1750942464313361</v>
+        <v>0.1992619958160924</v>
       </c>
       <c r="G63">
-        <v>0.086342295025868</v>
+        <v>0.1051651942992193</v>
       </c>
       <c r="H63">
-        <v>0.1119534990544626</v>
-      </c>
-      <c r="I63">
-        <v>0.1244694951552323</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.1253844350086273</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.1005724262496494</v>
+        <v>0.1123786981585331</v>
       </c>
       <c r="C64">
-        <v>0.09326505466524632</v>
+        <v>0.1057924874770595</v>
       </c>
       <c r="D64">
-        <v>0.1484223324814375</v>
+        <v>0.1691569049053413</v>
       </c>
       <c r="E64">
-        <v>0.1528667862028905</v>
+        <v>0.1728335068902759</v>
       </c>
       <c r="F64">
-        <v>0.1886002758096143</v>
+        <v>0.2055566463871032</v>
       </c>
       <c r="G64">
-        <v>0.08665207748301956</v>
+        <v>0.0965908140240411</v>
       </c>
       <c r="H64">
-        <v>0.1288601465381111</v>
-      </c>
-      <c r="I64">
-        <v>0.1007609005700314</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.1376909421576461</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.1095012248950666</v>
+        <v>0.1321239597738595</v>
       </c>
       <c r="C65">
-        <v>0.2374761939135301</v>
+        <v>0.280673462335563</v>
       </c>
       <c r="D65">
-        <v>0.03236212619298498</v>
+        <v>0.04458031438248036</v>
       </c>
       <c r="E65">
-        <v>0.04729682561688627</v>
+        <v>0.06132225566023488</v>
       </c>
       <c r="F65">
-        <v>0.09692682074875693</v>
+        <v>0.1283214144945498</v>
       </c>
       <c r="G65">
-        <v>0.1143620615784608</v>
+        <v>0.1531057068984449</v>
       </c>
       <c r="H65">
-        <v>0.1636935735321908</v>
-      </c>
-      <c r="I65">
-        <v>0.1983811735221236</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.1998728864548676</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.06212750575189684</v>
+        <v>0.07125923052951423</v>
       </c>
       <c r="C66">
-        <v>0.1097219228416794</v>
+        <v>0.1256816729507483</v>
       </c>
       <c r="D66">
-        <v>0.1229632213116584</v>
+        <v>0.128587131890904</v>
       </c>
       <c r="E66">
-        <v>0.08817422846704423</v>
+        <v>0.1028030215609682</v>
       </c>
       <c r="F66">
-        <v>0.3945479716835887</v>
+        <v>0.4127282457467354</v>
       </c>
       <c r="G66">
-        <v>0.07876930420269132</v>
+        <v>0.08669968563062139</v>
       </c>
       <c r="H66">
-        <v>0.06611904094454993</v>
-      </c>
-      <c r="I66">
-        <v>0.07757680479689115</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.07224101169050851</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.1272552950870076</v>
+        <v>0.1469788422919355</v>
       </c>
       <c r="C67">
-        <v>0.1954483321950675</v>
+        <v>0.2267224004908538</v>
       </c>
       <c r="D67">
-        <v>0.105107992710832</v>
+        <v>0.1216168011012452</v>
       </c>
       <c r="E67">
-        <v>0.1047312132213111</v>
+        <v>0.1220906049359277</v>
       </c>
       <c r="F67">
-        <v>0.1081241618451479</v>
+        <v>0.1283209737587571</v>
       </c>
       <c r="G67">
-        <v>0.1068716836371261</v>
+        <v>0.123803089475976</v>
       </c>
       <c r="H67">
-        <v>0.1095574737249528</v>
-      </c>
-      <c r="I67">
-        <v>0.1429038475785549</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.1304672879453047</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.1626837334257394</v>
+        <v>0.2061978503231416</v>
       </c>
       <c r="C68">
-        <v>0.2080941275408402</v>
+        <v>0.258415805204239</v>
       </c>
       <c r="D68">
-        <v>0.03537256953071587</v>
+        <v>0.045555469785638</v>
       </c>
       <c r="E68">
-        <v>0.04646090993241237</v>
+        <v>0.05875015179512664</v>
       </c>
       <c r="F68">
-        <v>0.06411985059473858</v>
+        <v>0.08061292598844166</v>
       </c>
       <c r="G68">
-        <v>0.1176910679133371</v>
+        <v>0.153205890216277</v>
       </c>
       <c r="H68">
-        <v>0.1608720553217312</v>
-      </c>
-      <c r="I68">
-        <v>0.2047056857404854</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.1972619066871361</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.1165445841741902</v>
+        <v>0.1435383473075532</v>
       </c>
       <c r="C69">
-        <v>0.1680042873228179</v>
+        <v>0.2177685859410668</v>
       </c>
       <c r="D69">
-        <v>0.03438974996653408</v>
+        <v>0.04420886057434148</v>
       </c>
       <c r="E69">
-        <v>0.04323648753991542</v>
+        <v>0.05394033830610186</v>
       </c>
       <c r="F69">
-        <v>0.1652102879234275</v>
+        <v>0.2004429527636487</v>
       </c>
       <c r="G69">
-        <v>0.1594259742600565</v>
+        <v>0.1970592586162326</v>
       </c>
       <c r="H69">
-        <v>0.1123689106787881</v>
-      </c>
-      <c r="I69">
-        <v>0.2008197181342703</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.1430416564910554</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.1203642244433438</v>
+        <v>0.1386333780777737</v>
       </c>
       <c r="C70">
-        <v>0.164580612064073</v>
+        <v>0.1937439570449311</v>
       </c>
       <c r="D70">
-        <v>0.08557048480675386</v>
+        <v>0.1035782231835474</v>
       </c>
       <c r="E70">
-        <v>0.103339334178586</v>
+        <v>0.1270413993557984</v>
       </c>
       <c r="F70">
-        <v>0.1228069081092686</v>
+        <v>0.149080465137806</v>
       </c>
       <c r="G70">
-        <v>0.1238091875879835</v>
+        <v>0.148022753022707</v>
       </c>
       <c r="H70">
-        <v>0.1172187364125811</v>
-      </c>
-      <c r="I70">
-        <v>0.1623105123974101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.1398998241774364</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.1254962440516872</v>
+        <v>0.1493217612747228</v>
       </c>
       <c r="C71">
-        <v>0.1479263599838045</v>
+        <v>0.1782921580726685</v>
       </c>
       <c r="D71">
-        <v>0.100082803908755</v>
+        <v>0.1254441199445105</v>
       </c>
       <c r="E71">
-        <v>0.1121727893885696</v>
+        <v>0.1435304032260836</v>
       </c>
       <c r="F71">
-        <v>0.07243888265693008</v>
+        <v>0.09045914031156438</v>
       </c>
       <c r="G71">
-        <v>0.1226017193155319</v>
+        <v>0.1576091250115923</v>
       </c>
       <c r="H71">
-        <v>0.1206635894581831</v>
-      </c>
-      <c r="I71">
-        <v>0.1986176112365388</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.1553432921588579</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.1162179637096583</v>
+        <v>0.1441791064807666</v>
       </c>
       <c r="C72">
-        <v>0.1264019581102523</v>
+        <v>0.1457846303350466</v>
       </c>
       <c r="D72">
-        <v>0.1058198195649337</v>
+        <v>0.1309016786477458</v>
       </c>
       <c r="E72">
-        <v>0.09914014959764256</v>
+        <v>0.1210397976256773</v>
       </c>
       <c r="F72">
-        <v>0.1045981889974004</v>
+        <v>0.12238394825876</v>
       </c>
       <c r="G72">
-        <v>0.1347253285364011</v>
+        <v>0.1650945090547837</v>
       </c>
       <c r="H72">
-        <v>0.1432248175753696</v>
-      </c>
-      <c r="I72">
-        <v>0.169871773908342</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.1706163295972201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.1332870263201768</v>
+        <v>0.1617461733670544</v>
       </c>
       <c r="C73">
-        <v>0.2123797573992434</v>
+        <v>0.2624509480714155</v>
       </c>
       <c r="D73">
-        <v>0.04829151191207517</v>
+        <v>0.05815506879959786</v>
       </c>
       <c r="E73">
-        <v>0.05098900472860485</v>
+        <v>0.06235925652669197</v>
       </c>
       <c r="F73">
-        <v>0.082637825087937</v>
+        <v>0.1009459953921293</v>
       </c>
       <c r="G73">
-        <v>0.1378412420768059</v>
+        <v>0.1638300723798676</v>
       </c>
       <c r="H73">
-        <v>0.1608908146233892</v>
-      </c>
-      <c r="I73">
-        <v>0.1736828178517678</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.1905124854632435</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.3801161262063074</v>
+        <v>0.4311133089142666</v>
       </c>
       <c r="C74">
-        <v>0.2162898953809226</v>
+        <v>0.2397810568389686</v>
       </c>
       <c r="D74">
-        <v>0.02187099729393778</v>
+        <v>0.01943732179873838</v>
       </c>
       <c r="E74">
-        <v>0.02270922201842117</v>
+        <v>0.01937128921061513</v>
       </c>
       <c r="F74">
-        <v>0.04352900269329116</v>
+        <v>0.03967697665168737</v>
       </c>
       <c r="G74">
-        <v>0.09925147199403977</v>
+        <v>0.1075564420778869</v>
       </c>
       <c r="H74">
-        <v>0.1316491052843486</v>
-      </c>
-      <c r="I74">
-        <v>0.08458417912873165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.143063604507837</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.1220818726545439</v>
+        <v>0.1470174422377371</v>
       </c>
       <c r="C75">
-        <v>0.1546336502817877</v>
+        <v>0.1887479622186651</v>
       </c>
       <c r="D75">
-        <v>0.1181546249554672</v>
+        <v>0.1564903116930499</v>
       </c>
       <c r="E75">
-        <v>0.09426020222045767</v>
+        <v>0.1220291393550565</v>
       </c>
       <c r="F75">
-        <v>0.06972724138389197</v>
+        <v>0.07354827507530939</v>
       </c>
       <c r="G75">
-        <v>0.1377924173202102</v>
+        <v>0.1656650307993667</v>
       </c>
       <c r="H75">
-        <v>0.1229051437371212</v>
-      </c>
-      <c r="I75">
-        <v>0.1804448474465203</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.1465018386208151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.166488638489383</v>
+        <v>0.2024975716746431</v>
       </c>
       <c r="C76">
-        <v>0.1545097207752291</v>
+        <v>0.1994314776475798</v>
       </c>
       <c r="D76">
-        <v>0.05675716129879663</v>
+        <v>0.07075763714679632</v>
       </c>
       <c r="E76">
-        <v>0.07523603080970048</v>
+        <v>0.09356225443295409</v>
       </c>
       <c r="F76">
-        <v>0.1085802050144542</v>
+        <v>0.1255776883476655</v>
       </c>
       <c r="G76">
-        <v>0.1077891288130287</v>
+        <v>0.1278670801017899</v>
       </c>
       <c r="H76">
-        <v>0.1483638600647973</v>
-      </c>
-      <c r="I76">
-        <v>0.1822752547346106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.1803062906485713</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.05445854154829634</v>
+        <v>0.05236142505575805</v>
       </c>
       <c r="C77">
-        <v>0.03612648416896616</v>
+        <v>0.03559843260225422</v>
       </c>
       <c r="D77">
-        <v>0.1312000790630794</v>
+        <v>0.139514822494253</v>
       </c>
       <c r="E77">
-        <v>0.1571870011332306</v>
+        <v>0.166136831982366</v>
       </c>
       <c r="F77">
-        <v>0.4449297827300241</v>
+        <v>0.4788935139952297</v>
       </c>
       <c r="G77">
-        <v>0.06063946896259149</v>
+        <v>0.05983081435293691</v>
       </c>
       <c r="H77">
-        <v>0.06909802049088176</v>
-      </c>
-      <c r="I77">
-        <v>0.04636062190293</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.0676641595172021</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.1269133156614136</v>
+        <v>0.1441865747548734</v>
       </c>
       <c r="C78">
-        <v>0.09400564264806932</v>
+        <v>0.1086740755271791</v>
       </c>
       <c r="D78">
-        <v>0.1493434381865779</v>
+        <v>0.1754817817618353</v>
       </c>
       <c r="E78">
-        <v>0.1261627638223313</v>
+        <v>0.1554232746244041</v>
       </c>
       <c r="F78">
-        <v>0.1498546165008094</v>
+        <v>0.1630400249148025</v>
       </c>
       <c r="G78">
-        <v>0.0982762701360267</v>
+        <v>0.1126002696756367</v>
       </c>
       <c r="H78">
-        <v>0.1248617645652202</v>
-      </c>
-      <c r="I78">
-        <v>0.1305821884795515</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.1405939987412687</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.1112677921215568</v>
+        <v>0.1248721266830848</v>
       </c>
       <c r="C79">
-        <v>0.1203900328489292</v>
+        <v>0.1405944500542972</v>
       </c>
       <c r="D79">
-        <v>0.1145046976589559</v>
+        <v>0.138935679416176</v>
       </c>
       <c r="E79">
-        <v>0.1191043552581852</v>
+        <v>0.1462088625442675</v>
       </c>
       <c r="F79">
-        <v>0.1488021063099181</v>
+        <v>0.1887837024892554</v>
       </c>
       <c r="G79">
-        <v>0.09896822186010049</v>
+        <v>0.1106858219973657</v>
       </c>
       <c r="H79">
-        <v>0.1302027816408534</v>
-      </c>
-      <c r="I79">
-        <v>0.1567600123015009</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.1499193568155535</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.1410304160168861</v>
+        <v>0.1648967236644908</v>
       </c>
       <c r="C80">
-        <v>0.1441146967841824</v>
+        <v>0.1685029588109696</v>
       </c>
       <c r="D80">
-        <v>0.08057474557450471</v>
+        <v>0.09977555027927817</v>
       </c>
       <c r="E80">
-        <v>0.1085366423287593</v>
+        <v>0.1320556497404677</v>
       </c>
       <c r="F80">
-        <v>0.137179036267443</v>
+        <v>0.1642680113007333</v>
       </c>
       <c r="G80">
-        <v>0.1114857021960805</v>
+        <v>0.1290822969368829</v>
       </c>
       <c r="H80">
-        <v>0.1183441321683518</v>
-      </c>
-      <c r="I80">
-        <v>0.158734628663792</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.1414188092671775</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.123273405301478</v>
+        <v>0.1484445832863201</v>
       </c>
       <c r="C81">
-        <v>0.1401929142004409</v>
+        <v>0.1627122470855083</v>
       </c>
       <c r="D81">
-        <v>0.08693162253393234</v>
+        <v>0.09819096395203389</v>
       </c>
       <c r="E81">
-        <v>0.08942158354181406</v>
+        <v>0.1040237263105376</v>
       </c>
       <c r="F81">
-        <v>0.1418943104691895</v>
+        <v>0.1696193287371253</v>
       </c>
       <c r="G81">
-        <v>0.1346529122959483</v>
+        <v>0.1562823146722053</v>
       </c>
       <c r="H81">
-        <v>0.138220639116367</v>
-      </c>
-      <c r="I81">
-        <v>0.14541261254083</v>
+        <v>0.1607268359562695</v>
       </c>
     </row>
   </sheetData>
